--- a/data/n2v/tables/model-1200-1325-20230828-64.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-64.xlsx
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5248,7 +5248,7 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5680,7 +5680,7 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
